--- a/src/main/java/resources/excelsheet/bio.xlsx
+++ b/src/main/java/resources/excelsheet/bio.xlsx
@@ -55,7 +55,7 @@
     <t>Dinesh</t>
   </si>
   <si>
-    <t>22-03-1998</t>
+    <t>22-03-1994</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/java/resources/excelsheet/bio.xlsx
+++ b/src/main/java/resources/excelsheet/bio.xlsx
@@ -37,25 +37,25 @@
     <t>Sowmya</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
     <t>Venkateshwaran</t>
   </si>
   <si>
+    <t>08-11-1994</t>
+  </si>
+  <si>
     <t>Indian</t>
   </si>
   <si>
     <t>22-03-1996</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sapna</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>22-03-1994</t>
   </si>
 </sst>
 </file>
@@ -403,18 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,31 +442,38 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/resources/excelsheet/bio.xlsx
+++ b/src/main/java/resources/excelsheet/bio.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,13 +468,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
